--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H2">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>285.9802398983767</v>
+        <v>115.831909805358</v>
       </c>
       <c r="R2">
-        <v>2573.82215908539</v>
+        <v>1042.487188248222</v>
       </c>
       <c r="S2">
-        <v>0.03922692237743623</v>
+        <v>0.01247295734104501</v>
       </c>
       <c r="T2">
-        <v>0.03922692237743621</v>
+        <v>0.01247295734104501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H3">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>108.7881845048303</v>
+        <v>100.714168093758</v>
       </c>
       <c r="R3">
-        <v>979.093660543473</v>
+        <v>906.427512843822</v>
       </c>
       <c r="S3">
-        <v>0.01492209976000308</v>
+        <v>0.01084505577420922</v>
       </c>
       <c r="T3">
-        <v>0.01492209976000308</v>
+        <v>0.01084505577420922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H4">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>1182.202903350884</v>
+        <v>1468.301525243082</v>
       </c>
       <c r="R4">
-        <v>10639.82613015796</v>
+        <v>13214.71372718774</v>
       </c>
       <c r="S4">
-        <v>0.1621586915956291</v>
+        <v>0.1581089556316815</v>
       </c>
       <c r="T4">
-        <v>0.162158691595629</v>
+        <v>0.1581089556316815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H5">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>1.835481298455</v>
+        <v>2.889766668834</v>
       </c>
       <c r="R5">
-        <v>16.519331686095</v>
+        <v>26.007900019506</v>
       </c>
       <c r="S5">
-        <v>0.000251766634104914</v>
+        <v>0.0003111744979989352</v>
       </c>
       <c r="T5">
-        <v>0.000251766634104914</v>
+        <v>0.0003111744979989352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>429.3377954840801</v>
+        <v>187.837574716456</v>
       </c>
       <c r="R6">
-        <v>3864.04015935672</v>
+        <v>1690.538172448104</v>
       </c>
       <c r="S6">
-        <v>0.05889078344412284</v>
+        <v>0.02022663755109161</v>
       </c>
       <c r="T6">
-        <v>0.05889078344412282</v>
+        <v>0.02022663755109161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>163.322050945256</v>
@@ -883,10 +883,10 @@
         <v>1469.898458507304</v>
       </c>
       <c r="S7">
-        <v>0.02240232198290988</v>
+        <v>0.01758676842776124</v>
       </c>
       <c r="T7">
-        <v>0.02240232198290987</v>
+        <v>0.01758676842776124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>1774.823283314648</v>
+        <v>2381.055426933624</v>
       </c>
       <c r="R8">
-        <v>15973.40954983183</v>
+        <v>21429.49884240262</v>
       </c>
       <c r="S8">
-        <v>0.2434463835438073</v>
+        <v>0.2563956928337983</v>
       </c>
       <c r="T8">
-        <v>0.2434463835438072</v>
+        <v>0.2563956928337983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>2.75558022684</v>
+        <v>4.686159137688001</v>
       </c>
       <c r="R9">
-        <v>24.80022204156</v>
+        <v>42.17543223919201</v>
       </c>
       <c r="S9">
-        <v>0.0003779734281692389</v>
+        <v>0.0005046127886171395</v>
       </c>
       <c r="T9">
-        <v>0.0003779734281692389</v>
+        <v>0.0005046127886171395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H10">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>177.67465977483</v>
+        <v>139.2493162895477</v>
       </c>
       <c r="R10">
-        <v>1599.07193797347</v>
+        <v>1253.243846605929</v>
       </c>
       <c r="S10">
-        <v>0.024371019794589</v>
+        <v>0.01499457951412341</v>
       </c>
       <c r="T10">
-        <v>0.02437101979458899</v>
+        <v>0.01499457951412341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H11">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>67.588249021281</v>
+        <v>121.0752639000143</v>
       </c>
       <c r="R11">
-        <v>608.2942411915291</v>
+        <v>1089.677375100129</v>
       </c>
       <c r="S11">
-        <v>0.009270846821188606</v>
+        <v>0.01303756973547534</v>
       </c>
       <c r="T11">
-        <v>0.009270846821188604</v>
+        <v>0.01303756973547535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H12">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>734.4825597472231</v>
+        <v>1765.143852333699</v>
       </c>
       <c r="R12">
-        <v>6610.343037725008</v>
+        <v>15886.29467100329</v>
       </c>
       <c r="S12">
-        <v>0.1007464374777194</v>
+        <v>0.1900733917619276</v>
       </c>
       <c r="T12">
-        <v>0.1007464374777193</v>
+        <v>0.1900733917619276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H13">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>1.140353317215</v>
+        <v>3.473982545463</v>
       </c>
       <c r="R13">
-        <v>10.263179854935</v>
+        <v>31.265842909167</v>
       </c>
       <c r="S13">
-        <v>0.0001564183283192589</v>
+        <v>0.0003740837577996198</v>
       </c>
       <c r="T13">
-        <v>0.0001564183283192589</v>
+        <v>0.0003740837577996198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H14">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N14">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q14">
-        <v>427.5693943596511</v>
+        <v>194.437275008382</v>
       </c>
       <c r="R14">
-        <v>3848.12454923686</v>
+        <v>1749.935475075438</v>
       </c>
       <c r="S14">
-        <v>0.05864821796594577</v>
+        <v>0.02093730338007777</v>
       </c>
       <c r="T14">
-        <v>0.05864821796594575</v>
+        <v>0.02093730338007777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H15">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.771439</v>
       </c>
       <c r="O15">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P15">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q15">
-        <v>162.6493431110669</v>
+        <v>169.060394771982</v>
       </c>
       <c r="R15">
-        <v>1463.844087999602</v>
+        <v>1521.543552947838</v>
       </c>
       <c r="S15">
-        <v>0.02231004897130667</v>
+        <v>0.01820468207417589</v>
       </c>
       <c r="T15">
-        <v>0.02231004897130667</v>
+        <v>0.0182046820741759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H16">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N16">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O16">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P16">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q16">
-        <v>1767.512956753863</v>
+        <v>2464.714152936378</v>
       </c>
       <c r="R16">
-        <v>15907.61661078477</v>
+        <v>22182.4273764274</v>
       </c>
       <c r="S16">
-        <v>0.2424436512828107</v>
+        <v>0.2654041924984585</v>
       </c>
       <c r="T16">
-        <v>0.2424436512828107</v>
+        <v>0.2654041924984585</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H17">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N17">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P17">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q17">
-        <v>2.74423025667</v>
+        <v>4.850808015186001</v>
       </c>
       <c r="R17">
-        <v>24.69807231003</v>
+        <v>43.657272136674</v>
       </c>
       <c r="S17">
-        <v>0.0003764165919381657</v>
+        <v>0.000522342431758951</v>
       </c>
       <c r="T17">
-        <v>0.0003764165919381656</v>
+        <v>0.000522342431758951</v>
       </c>
     </row>
   </sheetData>
